--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl25-Ccr9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl25-Ccr9.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.835473666666667</v>
+        <v>3.505502</v>
       </c>
       <c r="H2">
-        <v>8.506421</v>
+        <v>10.516506</v>
       </c>
       <c r="I2">
-        <v>0.1177775131860915</v>
+        <v>0.1326654026551307</v>
       </c>
       <c r="J2">
-        <v>0.1254491357467524</v>
+        <v>0.1444902445062344</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9227576666666666</v>
+        <v>0.4829603333333334</v>
       </c>
       <c r="N2">
-        <v>2.768273</v>
+        <v>1.448881</v>
       </c>
       <c r="O2">
-        <v>0.1357628664561569</v>
+        <v>0.05350129565745015</v>
       </c>
       <c r="P2">
-        <v>0.1401485205056352</v>
+        <v>0.05517039933893655</v>
       </c>
       <c r="Q2">
-        <v>2.616455064548111</v>
+        <v>1.693018414420667</v>
       </c>
       <c r="R2">
-        <v>23.548095580933</v>
+        <v>15.237165729786</v>
       </c>
       <c r="S2">
-        <v>0.01598981279422159</v>
+        <v>0.00709777093096682</v>
       </c>
       <c r="T2">
-        <v>0.01758151077361794</v>
+        <v>0.007971584489989535</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.835473666666667</v>
+        <v>3.505502</v>
       </c>
       <c r="H3">
-        <v>8.506421</v>
+        <v>10.516506</v>
       </c>
       <c r="I3">
-        <v>0.1177775131860915</v>
+        <v>0.1326654026551307</v>
       </c>
       <c r="J3">
-        <v>0.1254491357467524</v>
+        <v>0.1444902445062344</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>4.259967</v>
       </c>
       <c r="O3">
-        <v>0.2089191820780086</v>
+        <v>0.1573032940303455</v>
       </c>
       <c r="P3">
-        <v>0.2156680618034526</v>
+        <v>0.1622107547553536</v>
       </c>
       <c r="Q3">
-        <v>4.026341416456333</v>
+        <v>4.977774279478</v>
       </c>
       <c r="R3">
-        <v>36.237072748107</v>
+        <v>44.79996851530199</v>
       </c>
       <c r="S3">
-        <v>0.02460598172202011</v>
+        <v>0.0208687048415142</v>
       </c>
       <c r="T3">
-        <v>0.02705537196142031</v>
+        <v>0.02343787161614187</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.835473666666667</v>
+        <v>3.505502</v>
       </c>
       <c r="H4">
-        <v>8.506421</v>
+        <v>10.516506</v>
       </c>
       <c r="I4">
-        <v>0.1177775131860915</v>
+        <v>0.1326654026551307</v>
       </c>
       <c r="J4">
-        <v>0.1254491357467524</v>
+        <v>0.1444902445062344</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.506929333333333</v>
+        <v>4.546560333333333</v>
       </c>
       <c r="N4">
-        <v>7.520788</v>
+        <v>13.639681</v>
       </c>
       <c r="O4">
-        <v>0.3688378049741002</v>
+        <v>0.5036580684364729</v>
       </c>
       <c r="P4">
-        <v>0.380752661040488</v>
+        <v>0.5193709128808407</v>
       </c>
       <c r="Q4">
-        <v>7.108332108860889</v>
+        <v>15.93797634162067</v>
       </c>
       <c r="R4">
-        <v>63.97498897974799</v>
+        <v>143.441787074586</v>
       </c>
       <c r="S4">
-        <v>0.04344079943886611</v>
+        <v>0.06681800044963004</v>
       </c>
       <c r="T4">
-        <v>0.04776509226080538</v>
+        <v>0.07504403019157883</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.835473666666667</v>
+        <v>3.505502</v>
       </c>
       <c r="H5">
-        <v>8.506421</v>
+        <v>10.516506</v>
       </c>
       <c r="I5">
-        <v>0.1177775131860915</v>
+        <v>0.1326654026551307</v>
       </c>
       <c r="J5">
-        <v>0.1254491357467524</v>
+        <v>0.1444902445062344</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.638078</v>
+        <v>0.8193049999999999</v>
       </c>
       <c r="N5">
-        <v>1.276156</v>
+        <v>1.63861</v>
       </c>
       <c r="O5">
-        <v>0.0938787088223723</v>
+        <v>0.09076082653846768</v>
       </c>
       <c r="P5">
-        <v>0.06460756411466259</v>
+        <v>0.06239488823497225</v>
       </c>
       <c r="Q5">
-        <v>1.809253366279334</v>
+        <v>2.87207531611</v>
       </c>
       <c r="R5">
-        <v>10.855520197676</v>
+        <v>17.23245189666</v>
       </c>
       <c r="S5">
-        <v>0.01105680086622019</v>
+        <v>0.01204082159803829</v>
       </c>
       <c r="T5">
-        <v>0.008104963080887316</v>
+        <v>0.009015452657010307</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.835473666666667</v>
+        <v>3.505502</v>
       </c>
       <c r="H6">
-        <v>8.506421</v>
+        <v>10.516506</v>
       </c>
       <c r="I6">
-        <v>0.1177775131860915</v>
+        <v>0.1326654026551307</v>
       </c>
       <c r="J6">
-        <v>0.1254491357467524</v>
+        <v>0.1444902445062344</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.30908</v>
+        <v>1.758262666666667</v>
       </c>
       <c r="N6">
-        <v>3.927239999999999</v>
+        <v>5.274788000000001</v>
       </c>
       <c r="O6">
-        <v>0.1926014376693619</v>
+        <v>0.1947765153372639</v>
       </c>
       <c r="P6">
-        <v>0.1988231925357617</v>
+        <v>0.2008530447898968</v>
       </c>
       <c r="Q6">
-        <v>3.711861867559999</v>
+        <v>6.163593294525334</v>
       </c>
       <c r="R6">
-        <v>33.40675680803999</v>
+        <v>55.47233965072801</v>
       </c>
       <c r="S6">
-        <v>0.02268411836476344</v>
+        <v>0.02584010483498135</v>
       </c>
       <c r="T6">
-        <v>0.02494219767002145</v>
+        <v>0.02902130555151384</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>20.956807</v>
       </c>
       <c r="I7">
-        <v>0.2901620567311298</v>
+        <v>0.2643694815579301</v>
       </c>
       <c r="J7">
-        <v>0.3090622161966227</v>
+        <v>0.2879334797602897</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9227576666666666</v>
+        <v>0.4829603333333334</v>
       </c>
       <c r="N7">
-        <v>2.768273</v>
+        <v>1.448881</v>
       </c>
       <c r="O7">
-        <v>0.1357628664561569</v>
+        <v>0.05350129565745015</v>
       </c>
       <c r="P7">
-        <v>0.1401485205056352</v>
+        <v>0.05517039933893655</v>
       </c>
       <c r="Q7">
-        <v>6.446018109367888</v>
+        <v>3.373768831440778</v>
       </c>
       <c r="R7">
-        <v>58.01416298431099</v>
+        <v>30.363919482967</v>
       </c>
       <c r="S7">
-        <v>0.03939323255863218</v>
+        <v>0.01414410979563763</v>
       </c>
       <c r="T7">
-        <v>0.04331461234414942</v>
+        <v>0.01588540506142479</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>20.956807</v>
       </c>
       <c r="I8">
-        <v>0.2901620567311298</v>
+        <v>0.2643694815579301</v>
       </c>
       <c r="J8">
-        <v>0.3090622161966227</v>
+        <v>0.2879334797602897</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>4.259967</v>
       </c>
       <c r="O8">
-        <v>0.2089191820780086</v>
+        <v>0.1573032940303455</v>
       </c>
       <c r="P8">
-        <v>0.2156680618034526</v>
+        <v>0.1622107547553536</v>
       </c>
       <c r="Q8">
-        <v>9.919478471707665</v>
+        <v>9.919478471707667</v>
       </c>
       <c r="R8">
-        <v>89.27530624536898</v>
+        <v>89.27530624536899</v>
       </c>
       <c r="S8">
-        <v>0.06062041956234037</v>
+        <v>0.04158619029015707</v>
       </c>
       <c r="T8">
-        <v>0.06665484914380523</v>
+        <v>0.04670590707125192</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>20.956807</v>
       </c>
       <c r="I9">
-        <v>0.2901620567311298</v>
+        <v>0.2643694815579301</v>
       </c>
       <c r="J9">
-        <v>0.3090622161966227</v>
+        <v>0.2879334797602897</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.506929333333333</v>
+        <v>4.546560333333333</v>
       </c>
       <c r="N9">
-        <v>7.520788</v>
+        <v>13.639681</v>
       </c>
       <c r="O9">
-        <v>0.3688378049741002</v>
+        <v>0.5036580684364729</v>
       </c>
       <c r="P9">
-        <v>0.380752661040488</v>
+        <v>0.5193709128808407</v>
       </c>
       <c r="Q9">
-        <v>17.51241140043511</v>
+        <v>31.76046247317411</v>
       </c>
       <c r="R9">
-        <v>157.611702603916</v>
+        <v>285.844162258567</v>
       </c>
       <c r="S9">
-        <v>0.1070227360914802</v>
+        <v>0.1331518224350188</v>
       </c>
       <c r="T9">
-        <v>0.1176762612439347</v>
+        <v>0.1495442742320587</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>20.956807</v>
       </c>
       <c r="I10">
-        <v>0.2901620567311298</v>
+        <v>0.2643694815579301</v>
       </c>
       <c r="J10">
-        <v>0.3090622161966227</v>
+        <v>0.2879334797602897</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.638078</v>
+        <v>0.8193049999999999</v>
       </c>
       <c r="N10">
-        <v>1.276156</v>
+        <v>1.63861</v>
       </c>
       <c r="O10">
-        <v>0.0938787088223723</v>
+        <v>0.09076082653846768</v>
       </c>
       <c r="P10">
-        <v>0.06460756411466259</v>
+        <v>0.06239488823497225</v>
       </c>
       <c r="Q10">
-        <v>4.457359165648667</v>
+        <v>5.723338919711667</v>
       </c>
       <c r="R10">
-        <v>26.744154993892</v>
+        <v>34.34003351827</v>
       </c>
       <c r="S10">
-        <v>0.0272400392351624</v>
+        <v>0.02399439265774393</v>
       </c>
       <c r="T10">
-        <v>0.01996775694834301</v>
+        <v>0.01796557728874992</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>20.956807</v>
       </c>
       <c r="I11">
-        <v>0.2901620567311298</v>
+        <v>0.2643694815579301</v>
       </c>
       <c r="J11">
-        <v>0.3090622161966227</v>
+        <v>0.2879334797602897</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.30908</v>
+        <v>1.758262666666667</v>
       </c>
       <c r="N11">
-        <v>3.927239999999999</v>
+        <v>5.274788000000001</v>
       </c>
       <c r="O11">
-        <v>0.1926014376693619</v>
+        <v>0.1947765153372639</v>
       </c>
       <c r="P11">
-        <v>0.1988231925357617</v>
+        <v>0.2008530447898968</v>
       </c>
       <c r="Q11">
-        <v>9.144712302519997</v>
+        <v>12.28252378687956</v>
       </c>
       <c r="R11">
-        <v>82.30241072267998</v>
+        <v>110.542714081916</v>
       </c>
       <c r="S11">
-        <v>0.05588562928351454</v>
+        <v>0.05149296637937267</v>
       </c>
       <c r="T11">
-        <v>0.0614487365163903</v>
+        <v>0.05783231610680431</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.277146666666667</v>
+        <v>4.346963</v>
       </c>
       <c r="H12">
-        <v>15.83144</v>
+        <v>13.040889</v>
       </c>
       <c r="I12">
-        <v>0.2191976664868593</v>
+        <v>0.1645104172589132</v>
       </c>
       <c r="J12">
-        <v>0.2334754493842435</v>
+        <v>0.1791736951596531</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9227576666666666</v>
+        <v>0.4829603333333334</v>
       </c>
       <c r="N12">
-        <v>2.768273</v>
+        <v>1.448881</v>
       </c>
       <c r="O12">
-        <v>0.1357628664561569</v>
+        <v>0.05350129565745015</v>
       </c>
       <c r="P12">
-        <v>0.1401485205056352</v>
+        <v>0.05517039933893655</v>
       </c>
       <c r="Q12">
-        <v>4.869527544791111</v>
+        <v>2.099410699467667</v>
       </c>
       <c r="R12">
-        <v>43.82574790312</v>
+        <v>18.894696295209</v>
       </c>
       <c r="S12">
-        <v>0.02975890352275668</v>
+        <v>0.008801520472499607</v>
       </c>
       <c r="T12">
-        <v>0.03272123880559004</v>
+        <v>0.009885084312990945</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.277146666666667</v>
+        <v>4.346963</v>
       </c>
       <c r="H13">
-        <v>15.83144</v>
+        <v>13.040889</v>
       </c>
       <c r="I13">
-        <v>0.2191976664868593</v>
+        <v>0.1645104172589132</v>
       </c>
       <c r="J13">
-        <v>0.2334754493842435</v>
+        <v>0.1791736951596531</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>4.259967</v>
       </c>
       <c r="O13">
-        <v>0.2089191820780086</v>
+        <v>0.1573032940303455</v>
       </c>
       <c r="P13">
-        <v>0.2156680618034526</v>
+        <v>0.1622107547553536</v>
       </c>
       <c r="Q13">
-        <v>7.493490218053333</v>
+        <v>6.172639643406999</v>
       </c>
       <c r="R13">
-        <v>67.44141196247999</v>
+        <v>55.55375679066299</v>
       </c>
       <c r="S13">
-        <v>0.04579459719584276</v>
+        <v>0.02587803053713364</v>
       </c>
       <c r="T13">
-        <v>0.05035319764738989</v>
+        <v>0.02906390032415298</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.277146666666667</v>
+        <v>4.346963</v>
       </c>
       <c r="H14">
-        <v>15.83144</v>
+        <v>13.040889</v>
       </c>
       <c r="I14">
-        <v>0.2191976664868593</v>
+        <v>0.1645104172589132</v>
       </c>
       <c r="J14">
-        <v>0.2334754493842435</v>
+        <v>0.1791736951596531</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.506929333333333</v>
+        <v>4.546560333333333</v>
       </c>
       <c r="N14">
-        <v>7.520788</v>
+        <v>13.639681</v>
       </c>
       <c r="O14">
-        <v>0.3688378049741002</v>
+        <v>0.5036580684364729</v>
       </c>
       <c r="P14">
-        <v>0.380752661040488</v>
+        <v>0.5193709128808407</v>
       </c>
       <c r="Q14">
-        <v>13.22943377496889</v>
+        <v>19.76372954626766</v>
       </c>
       <c r="R14">
-        <v>119.06490397472</v>
+        <v>177.873565916409</v>
       </c>
       <c r="S14">
-        <v>0.08084838616245806</v>
+        <v>0.08285699899430242</v>
       </c>
       <c r="T14">
-        <v>0.08889639864067449</v>
+        <v>0.0930576056193025</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.277146666666667</v>
+        <v>4.346963</v>
       </c>
       <c r="H15">
-        <v>15.83144</v>
+        <v>13.040889</v>
       </c>
       <c r="I15">
-        <v>0.2191976664868593</v>
+        <v>0.1645104172589132</v>
       </c>
       <c r="J15">
-        <v>0.2334754493842435</v>
+        <v>0.1791736951596531</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.638078</v>
+        <v>0.8193049999999999</v>
       </c>
       <c r="N15">
-        <v>1.276156</v>
+        <v>1.63861</v>
       </c>
       <c r="O15">
-        <v>0.0938787088223723</v>
+        <v>0.09076082653846768</v>
       </c>
       <c r="P15">
-        <v>0.06460756411466259</v>
+        <v>0.06239488823497225</v>
       </c>
       <c r="Q15">
-        <v>3.367231190773333</v>
+        <v>3.561488520714999</v>
       </c>
       <c r="R15">
-        <v>20.20338714464</v>
+        <v>21.36893112429</v>
       </c>
       <c r="S15">
-        <v>0.02057799390666333</v>
+        <v>0.01493110144460716</v>
       </c>
       <c r="T15">
-        <v>0.01508428006529217</v>
+        <v>0.01117952268413354</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.277146666666667</v>
+        <v>4.346963</v>
       </c>
       <c r="H16">
-        <v>15.83144</v>
+        <v>13.040889</v>
       </c>
       <c r="I16">
-        <v>0.2191976664868593</v>
+        <v>0.1645104172589132</v>
       </c>
       <c r="J16">
-        <v>0.2334754493842435</v>
+        <v>0.1791736951596531</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.30908</v>
+        <v>1.758262666666667</v>
       </c>
       <c r="N16">
-        <v>3.927239999999999</v>
+        <v>5.274788000000001</v>
       </c>
       <c r="O16">
-        <v>0.1926014376693619</v>
+        <v>0.1947765153372639</v>
       </c>
       <c r="P16">
-        <v>0.1988231925357617</v>
+        <v>0.2008530447898968</v>
       </c>
       <c r="Q16">
-        <v>6.908207158399999</v>
+        <v>7.643102756281334</v>
       </c>
       <c r="R16">
-        <v>62.17386442559999</v>
+        <v>68.78792480653202</v>
       </c>
       <c r="S16">
-        <v>0.0422177856991384</v>
+        <v>0.03204276581037039</v>
       </c>
       <c r="T16">
-        <v>0.04642033422529693</v>
+        <v>0.03598758221907312</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.4167625</v>
+        <v>6.487399</v>
       </c>
       <c r="H17">
-        <v>8.833525</v>
+        <v>12.974798</v>
       </c>
       <c r="I17">
-        <v>0.1834597547841511</v>
+        <v>0.2455150219624727</v>
       </c>
       <c r="J17">
-        <v>0.1302731285986587</v>
+        <v>0.1782656459701541</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9227576666666666</v>
+        <v>0.4829603333333334</v>
       </c>
       <c r="N17">
-        <v>2.768273</v>
+        <v>1.448881</v>
       </c>
       <c r="O17">
-        <v>0.1357628664561569</v>
+        <v>0.05350129565745015</v>
       </c>
       <c r="P17">
-        <v>0.1401485205056352</v>
+        <v>0.05517039933893655</v>
       </c>
       <c r="Q17">
-        <v>4.075601458720833</v>
+        <v>3.133156383506333</v>
       </c>
       <c r="R17">
-        <v>24.453608752325</v>
+        <v>18.798938301038</v>
       </c>
       <c r="S17">
-        <v>0.02490702218883999</v>
+        <v>0.01313537177835962</v>
       </c>
       <c r="T17">
-        <v>0.01825758623474237</v>
+        <v>0.009834986876586885</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.4167625</v>
+        <v>6.487399</v>
       </c>
       <c r="H18">
-        <v>8.833525</v>
+        <v>12.974798</v>
       </c>
       <c r="I18">
-        <v>0.1834597547841511</v>
+        <v>0.2455150219624727</v>
       </c>
       <c r="J18">
-        <v>0.1302731285986587</v>
+        <v>0.1782656459701541</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>4.259967</v>
       </c>
       <c r="O18">
-        <v>0.2089191820780086</v>
+        <v>0.1573032940303455</v>
       </c>
       <c r="P18">
-        <v>0.2156680618034526</v>
+        <v>0.1622107547553536</v>
       </c>
       <c r="Q18">
-        <v>6.271754165612499</v>
+        <v>9.212035218611</v>
       </c>
       <c r="R18">
-        <v>37.630524993675</v>
+        <v>55.27221131166599</v>
       </c>
       <c r="S18">
-        <v>0.03832826191373687</v>
+        <v>0.03862032168862957</v>
       </c>
       <c r="T18">
-        <v>0.02809575314994466</v>
+        <v>0.02891660497976935</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.4167625</v>
+        <v>6.487399</v>
       </c>
       <c r="H19">
-        <v>8.833525</v>
+        <v>12.974798</v>
       </c>
       <c r="I19">
-        <v>0.1834597547841511</v>
+        <v>0.2455150219624727</v>
       </c>
       <c r="J19">
-        <v>0.1302731285986587</v>
+        <v>0.1782656459701541</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.506929333333333</v>
+        <v>4.546560333333333</v>
       </c>
       <c r="N19">
-        <v>7.520788</v>
+        <v>13.639681</v>
       </c>
       <c r="O19">
-        <v>0.3688378049741002</v>
+        <v>0.5036580684364729</v>
       </c>
       <c r="P19">
-        <v>0.380752661040488</v>
+        <v>0.5193709128808407</v>
       </c>
       <c r="Q19">
-        <v>11.07251146961667</v>
+        <v>29.49535095990633</v>
       </c>
       <c r="R19">
-        <v>66.4350688177</v>
+        <v>176.972105759438</v>
       </c>
       <c r="S19">
-        <v>0.06766689325567295</v>
+        <v>0.1236556217337572</v>
       </c>
       <c r="T19">
-        <v>0.04960184037600901</v>
+        <v>0.09258599128281168</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.4167625</v>
+        <v>6.487399</v>
       </c>
       <c r="H20">
-        <v>8.833525</v>
+        <v>12.974798</v>
       </c>
       <c r="I20">
-        <v>0.1834597547841511</v>
+        <v>0.2455150219624727</v>
       </c>
       <c r="J20">
-        <v>0.1302731285986587</v>
+        <v>0.1782656459701541</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.638078</v>
+        <v>0.8193049999999999</v>
       </c>
       <c r="N20">
-        <v>1.276156</v>
+        <v>1.63861</v>
       </c>
       <c r="O20">
-        <v>0.0938787088223723</v>
+        <v>0.09076082653846768</v>
       </c>
       <c r="P20">
-        <v>0.06460756411466259</v>
+        <v>0.06239488823497225</v>
       </c>
       <c r="Q20">
-        <v>2.818238982475</v>
+        <v>5.315158437695</v>
       </c>
       <c r="R20">
-        <v>11.2729559299</v>
+        <v>21.26063375078</v>
       </c>
       <c r="S20">
-        <v>0.01722296490000514</v>
+        <v>0.02228314632092407</v>
       </c>
       <c r="T20">
-        <v>0.008416629508355528</v>
+        <v>0.01112286505644289</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.4167625</v>
+        <v>6.487399</v>
       </c>
       <c r="H21">
-        <v>8.833525</v>
+        <v>12.974798</v>
       </c>
       <c r="I21">
-        <v>0.1834597547841511</v>
+        <v>0.2455150219624727</v>
       </c>
       <c r="J21">
-        <v>0.1302731285986587</v>
+        <v>0.1782656459701541</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.30908</v>
+        <v>1.758262666666667</v>
       </c>
       <c r="N21">
-        <v>3.927239999999999</v>
+        <v>5.274788000000001</v>
       </c>
       <c r="O21">
-        <v>0.1926014376693619</v>
+        <v>0.1947765153372639</v>
       </c>
       <c r="P21">
-        <v>0.1988231925357617</v>
+        <v>0.2008530447898968</v>
       </c>
       <c r="Q21">
-        <v>5.781895453499999</v>
+        <v>11.40655146547067</v>
       </c>
       <c r="R21">
-        <v>34.69137272099999</v>
+        <v>68.43930879282401</v>
       </c>
       <c r="S21">
-        <v>0.03533461252589608</v>
+        <v>0.04782056044080225</v>
       </c>
       <c r="T21">
-        <v>0.02590131932960716</v>
+        <v>0.03580519777454325</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.559845333333333</v>
+        <v>5.098167333333333</v>
       </c>
       <c r="H22">
-        <v>13.679536</v>
+        <v>15.294502</v>
       </c>
       <c r="I22">
-        <v>0.1894030088117685</v>
+        <v>0.1929396765655534</v>
       </c>
       <c r="J22">
-        <v>0.2017400700737227</v>
+        <v>0.2101369346036688</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.9227576666666666</v>
+        <v>0.4829603333333334</v>
       </c>
       <c r="N22">
-        <v>2.768273</v>
+        <v>1.448881</v>
       </c>
       <c r="O22">
-        <v>0.1357628664561569</v>
+        <v>0.05350129565745015</v>
       </c>
       <c r="P22">
-        <v>0.1401485205056352</v>
+        <v>0.05517039933893655</v>
       </c>
       <c r="Q22">
-        <v>4.207632240147555</v>
+        <v>2.462212594695778</v>
       </c>
       <c r="R22">
-        <v>37.86869016132799</v>
+        <v>22.159913352262</v>
       </c>
       <c r="S22">
-        <v>0.02571389539170643</v>
+        <v>0.01032252267998648</v>
       </c>
       <c r="T22">
-        <v>0.0282735723475354</v>
+        <v>0.01159333859794441</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.559845333333333</v>
+        <v>5.098167333333333</v>
       </c>
       <c r="H23">
-        <v>13.679536</v>
+        <v>15.294502</v>
       </c>
       <c r="I23">
-        <v>0.1894030088117685</v>
+        <v>0.1929396765655534</v>
       </c>
       <c r="J23">
-        <v>0.2017400700737227</v>
+        <v>0.2101369346036688</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>4.259967</v>
       </c>
       <c r="O23">
-        <v>0.2089191820780086</v>
+        <v>0.1573032940303455</v>
       </c>
       <c r="P23">
-        <v>0.2156680618034526</v>
+        <v>0.1622107547553536</v>
       </c>
       <c r="Q23">
-        <v>6.474930215034665</v>
+        <v>7.239341533492667</v>
       </c>
       <c r="R23">
-        <v>58.27437193531199</v>
+        <v>65.154073801434</v>
       </c>
       <c r="S23">
-        <v>0.03956992168406854</v>
+        <v>0.030350046672911</v>
       </c>
       <c r="T23">
-        <v>0.04350888990089249</v>
+        <v>0.03408647076403751</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.559845333333333</v>
+        <v>5.098167333333333</v>
       </c>
       <c r="H24">
-        <v>13.679536</v>
+        <v>15.294502</v>
       </c>
       <c r="I24">
-        <v>0.1894030088117685</v>
+        <v>0.1929396765655534</v>
       </c>
       <c r="J24">
-        <v>0.2017400700737227</v>
+        <v>0.2101369346036688</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.506929333333333</v>
+        <v>4.546560333333333</v>
       </c>
       <c r="N24">
-        <v>7.520788</v>
+        <v>13.639681</v>
       </c>
       <c r="O24">
-        <v>0.3688378049741002</v>
+        <v>0.5036580684364729</v>
       </c>
       <c r="P24">
-        <v>0.380752661040488</v>
+        <v>0.5193709128808407</v>
       </c>
       <c r="Q24">
-        <v>11.43121002159644</v>
+        <v>23.17912537042911</v>
       </c>
       <c r="R24">
-        <v>102.880890194368</v>
+        <v>208.612128333862</v>
       </c>
       <c r="S24">
-        <v>0.06985899002562285</v>
+        <v>0.09717562482376443</v>
       </c>
       <c r="T24">
-        <v>0.07681306851906444</v>
+        <v>0.109139011555089</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.559845333333333</v>
+        <v>5.098167333333333</v>
       </c>
       <c r="H25">
-        <v>13.679536</v>
+        <v>15.294502</v>
       </c>
       <c r="I25">
-        <v>0.1894030088117685</v>
+        <v>0.1929396765655534</v>
       </c>
       <c r="J25">
-        <v>0.2017400700737227</v>
+        <v>0.2101369346036688</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.638078</v>
+        <v>0.8193049999999999</v>
       </c>
       <c r="N25">
-        <v>1.276156</v>
+        <v>1.63861</v>
       </c>
       <c r="O25">
-        <v>0.0938787088223723</v>
+        <v>0.09076082653846768</v>
       </c>
       <c r="P25">
-        <v>0.06460756411466259</v>
+        <v>0.06239488823497225</v>
       </c>
       <c r="Q25">
-        <v>2.909536990602666</v>
+        <v>4.176953987036667</v>
       </c>
       <c r="R25">
-        <v>17.457221943616</v>
+        <v>25.06172392222</v>
       </c>
       <c r="S25">
-        <v>0.01778090991432123</v>
+        <v>0.01751136451715425</v>
       </c>
       <c r="T25">
-        <v>0.01303393451178456</v>
+        <v>0.01311147054863559</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.559845333333333</v>
+        <v>5.098167333333333</v>
       </c>
       <c r="H26">
-        <v>13.679536</v>
+        <v>15.294502</v>
       </c>
       <c r="I26">
-        <v>0.1894030088117685</v>
+        <v>0.1929396765655534</v>
       </c>
       <c r="J26">
-        <v>0.2017400700737227</v>
+        <v>0.2101369346036688</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.30908</v>
+        <v>1.758262666666667</v>
       </c>
       <c r="N26">
-        <v>3.927239999999999</v>
+        <v>5.274788000000001</v>
       </c>
       <c r="O26">
-        <v>0.1926014376693619</v>
+        <v>0.1947765153372639</v>
       </c>
       <c r="P26">
-        <v>0.1988231925357617</v>
+        <v>0.2008530447898968</v>
       </c>
       <c r="Q26">
-        <v>5.969202328959998</v>
+        <v>8.963917290619557</v>
       </c>
       <c r="R26">
-        <v>53.72282096063999</v>
+        <v>80.67525561557601</v>
       </c>
       <c r="S26">
-        <v>0.03647929179604943</v>
+        <v>0.03758011787173724</v>
       </c>
       <c r="T26">
-        <v>0.04011060479444582</v>
+        <v>0.04220664313796232</v>
       </c>
     </row>
   </sheetData>
